--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="175">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="174">
   <si>
     <t>Table 13: Communications infrastructure</t>
   </si>
@@ -1418,11 +1415,9 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1434,42 +1429,42 @@
     </row>
     <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="13">
         <v>0.355605</v>
@@ -1493,15 +1488,15 @@
         <v>61</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="17">
         <v>1.7765200000000001</v>
@@ -1530,10 +1525,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="22">
         <v>0.71123400000000003</v>
@@ -1545,13 +1540,13 @@
         <v>93.527299999999997</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="22">
         <v>30</v>
@@ -1562,10 +1557,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="22">
         <v>0.273345</v>
@@ -1594,10 +1589,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="22">
         <v>6.2684599999999993E-2</v>
@@ -1626,10 +1621,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="22">
         <v>0.23725199999999999</v>
@@ -1658,10 +1653,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="22">
         <v>2.5310600000000001</v>
@@ -1679,7 +1674,7 @@
         <v>66.215800000000002</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="22">
         <v>75</v>
@@ -1690,10 +1685,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="22">
         <v>2.3996900000000001</v>
@@ -1722,10 +1717,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="17">
         <v>0.249918</v>
@@ -1754,10 +1749,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="26">
         <v>1.40632</v>
@@ -1786,10 +1781,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="31">
         <v>1.08770773011448</v>
@@ -1818,10 +1813,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="22">
         <v>3.5211300000000001E-2</v>
@@ -1850,10 +1845,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="22">
         <v>7.4436100000000005E-2</v>
@@ -1882,10 +1877,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="22">
         <v>1.30294E-2</v>
@@ -1897,13 +1892,13 @@
         <v>33.619199999999999</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="23">
         <v>5.0293099999999997</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="22">
         <v>17.920000000000002</v>
@@ -1914,10 +1909,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="13">
         <v>1.2534099999999999E-3</v>
@@ -1946,10 +1941,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="13">
         <v>1.05553E-2</v>
@@ -1961,13 +1956,13 @@
         <v>98.9298</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="13">
         <v>64.5</v>
@@ -1978,10 +1973,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="17">
         <v>5.4955500000000001E-3</v>
@@ -1993,7 +1988,7 @@
         <v>42.773299999999999</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="18">
         <v>19.529800000000002</v>
@@ -2010,10 +2005,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="13">
         <v>0.123761</v>
@@ -2025,27 +2020,27 @@
         <v>44.8583</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>50</v>
       </c>
       <c r="C21" s="13">
         <v>1.3730599999999999</v>
@@ -2063,7 +2058,7 @@
         <v>94.3001</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="13">
         <v>35</v>
@@ -2074,10 +2069,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="22">
         <v>0.73781699999999995</v>
@@ -2098,18 +2093,18 @@
         <v>2317</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="31">
         <v>4.047421683908E-2</v>
@@ -2138,10 +2133,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="22">
         <v>0.183943</v>
@@ -2170,10 +2165,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="22">
         <v>2.6600700000000002</v>
@@ -2191,21 +2186,21 @@
         <v>23.624600000000001</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="22">
         <v>10.37</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="22">
         <v>2.9300699999999999E-2</v>
@@ -2217,27 +2212,27 @@
         <v>20.364000000000001</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="22">
         <v>5.9163599999999997E-2</v>
@@ -2249,13 +2244,13 @@
         <v>37.2181</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="22">
         <v>69.94</v>
@@ -2266,10 +2261,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="22">
         <v>0.72286300000000003</v>
@@ -2298,10 +2293,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="22">
         <v>0.103612</v>
@@ -2313,13 +2308,13 @@
         <v>34.142800000000001</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="22">
         <v>66.989999999999995</v>
@@ -2330,10 +2325,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="22">
         <v>21.638500000000001</v>
@@ -2362,10 +2357,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="22">
         <v>6.0974E-2</v>
@@ -2394,10 +2389,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="22">
         <v>20.2851</v>
@@ -2421,15 +2416,15 @@
         <v>75.64</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="22">
         <v>0.67173099999999997</v>
@@ -2441,13 +2436,13 @@
         <v>48.796399999999998</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="22">
         <v>75</v>
@@ -2458,10 +2453,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="17">
         <v>2.3414899999999999E-3</v>
@@ -2473,7 +2468,7 @@
         <v>20.086300000000001</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="18">
         <v>5.9495899999999997</v>
@@ -2482,7 +2477,7 @@
         <v>800</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" s="18">
         <v>4.9471340000000001</v>
@@ -2490,10 +2485,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="22">
         <v>7.4681499999999998E-2</v>
@@ -2511,21 +2506,21 @@
         <v>37.934800000000003</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="22">
         <v>34</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="22">
         <v>1.5293600000000001</v>
@@ -2543,7 +2538,7 @@
         <v>9.7916100000000004</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="22">
         <v>28</v>
@@ -2554,10 +2549,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="22">
         <v>2.75667E-2</v>
@@ -2572,10 +2567,10 @@
         <v>0.172787</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="22">
         <v>70</v>
@@ -2586,10 +2581,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="31">
         <v>0.47974065764141</v>
@@ -2618,10 +2613,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="35" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="13">
         <v>7.2553900000000002</v>
@@ -2650,10 +2645,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="22">
         <v>6.6851500000000001</v>
@@ -2682,10 +2677,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="13">
         <v>4.8323</v>
@@ -2697,13 +2692,13 @@
         <v>91.479299999999995</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="13">
         <v>83.59</v>
@@ -2714,10 +2709,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="13">
         <v>0.30027399999999999</v>
@@ -2735,10 +2730,10 @@
         <v>55.530500000000004</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" s="14">
         <v>31.663229999999999</v>
@@ -2746,10 +2741,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="22">
         <v>4.3092899999999998</v>
@@ -2778,10 +2773,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="22">
         <v>8.7711000000000006</v>
@@ -2810,10 +2805,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="31">
         <v>6.2954176471777501</v>
@@ -2842,10 +2837,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="22">
         <v>0.23538400000000001</v>
@@ -2874,10 +2869,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="22">
         <v>6.9959400000000005E-2</v>
@@ -2906,10 +2901,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="22">
         <v>2.8793600000000001</v>
@@ -2933,15 +2928,15 @@
         <v>60.84</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="22">
         <v>0.70172900000000005</v>
@@ -2970,10 +2965,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="22">
         <v>0.19442200000000001</v>
@@ -2985,13 +2980,13 @@
         <v>133.97200000000001</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" s="22">
         <v>54.15</v>
@@ -3002,10 +2997,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="17">
         <v>0.19756000000000001</v>
@@ -3034,10 +3029,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="22">
         <v>9.3391199999999994E-3</v>
@@ -3049,7 +3044,7 @@
         <v>100.797</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" s="23">
         <v>23.165500000000002</v>
@@ -3066,10 +3061,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="22">
         <v>6.4237199999999994E-2</v>
@@ -3081,7 +3076,7 @@
         <v>82.792599999999993</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="23">
         <v>36.709499999999998</v>
@@ -3093,15 +3088,15 @@
         <v>46</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="22">
         <v>0.19139900000000001</v>
@@ -3113,13 +3108,13 @@
         <v>56.569000000000003</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="22">
         <v>48.94</v>
@@ -3130,10 +3125,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="22">
         <v>0.63397400000000004</v>
@@ -3162,10 +3157,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="22">
         <v>4.0041899999999998E-2</v>
@@ -3177,13 +3172,13 @@
         <v>40.638500000000001</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I56" s="22">
         <v>14.93</v>
@@ -3194,10 +3189,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="13">
         <v>3.7761400000000001E-2</v>
@@ -3226,10 +3221,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="22">
         <v>0.81882999999999995</v>
@@ -3247,7 +3242,7 @@
         <v>54.245699999999999</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I58" s="22">
         <v>75</v>
@@ -3258,13 +3253,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>123</v>
-      </c>
       <c r="C59" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="22">
         <v>9</v>
@@ -3290,10 +3285,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="17">
         <v>0.33154600000000001</v>
@@ -3322,10 +3317,10 @@
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="31">
         <v>0.18061398839612999</v>
@@ -3354,10 +3349,10 @@
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="38">
         <v>1.3260608839632499</v>
@@ -3386,10 +3381,10 @@
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="38">
         <v>16.567567411308598</v>
@@ -3418,10 +3413,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="43">
         <v>12.7880552103795</v>
@@ -3450,10 +3445,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="47">
         <v>11.984707429938499</v>
@@ -3482,10 +3477,10 @@
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="51">
         <v>13.938817736255199</v>
@@ -3514,10 +3509,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="47">
         <v>1.5834812746609901</v>
@@ -3546,10 +3541,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="47">
         <v>1.68526169896082</v>
@@ -3578,10 +3573,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="47">
         <v>0.67962811831887004</v>
@@ -3610,10 +3605,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="47">
         <v>9.243463650139E-2</v>
@@ -3642,10 +3637,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="47">
         <v>0.18061398839612999</v>
@@ -3674,10 +3669,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="47">
         <v>0.21949166168133999</v>
@@ -3706,10 +3701,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="47">
         <v>0.89346218405275002</v>
@@ -3738,10 +3733,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="47">
         <v>5.9122996746485104</v>
@@ -3770,10 +3765,10 @@
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="51">
         <v>0.31003572214774</v>
@@ -3802,10 +3797,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="47">
         <v>5.9441196551391799</v>
@@ -3834,10 +3829,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="47">
         <v>13.782742017111699</v>
@@ -3866,10 +3861,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="47">
         <v>34.456363306497401</v>
@@ -3898,10 +3893,10 @@
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="51">
         <v>31.327246742161101</v>
@@ -3930,10 +3925,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="47">
         <v>1.17373392285516</v>
@@ -3962,10 +3957,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="47">
         <v>15.1853603294443</v>
@@ -3994,10 +3989,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="47">
         <v>1.37427250952073</v>
@@ -4026,10 +4021,10 @@
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="51">
         <v>16.679523705065598</v>
@@ -4058,10 +4053,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="47">
         <v>0.10109938025876999</v>
@@ -4090,10 +4085,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="47">
         <v>2.1953592888767299</v>
@@ -4122,10 +4117,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="47">
         <v>2.10077686693832</v>
@@ -4154,10 +4149,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="47">
         <v>3.1082010308930901</v>
@@ -4186,10 +4181,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B88" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="47">
         <v>2.85475549241752</v>
@@ -4218,10 +4213,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B89" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="47">
         <v>22.887699028254598</v>
@@ -4250,10 +4245,10 @@
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="51">
         <v>34.395097562404501</v>
@@ -4282,10 +4277,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="47">
         <v>0.26553791998656001</v>
@@ -4314,10 +4309,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B92" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="47">
         <v>3.4232397722919901</v>
@@ -4346,10 +4341,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B93" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="47">
         <v>6.33431434043609</v>
@@ -4378,10 +4373,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="47">
         <v>6.2327229556581001</v>
@@ -4410,10 +4405,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="47">
         <v>0.16677481642972999</v>
@@ -4442,10 +4437,10 @@
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C96" s="51">
         <v>6.4307619299334897</v>
@@ -4474,10 +4469,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B97" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="47">
         <v>0.29511134481214002</v>
@@ -4506,10 +4501,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B98" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C98" s="47">
         <v>4.29585387230519</v>
@@ -4538,10 +4533,10 @@
     </row>
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99" s="51">
         <v>2.0107843501948199</v>
@@ -4582,27 +4577,27 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4610,27 +4605,27 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4640,7 +4635,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -526,6 +526,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 19/11/2021), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
   </si>
   <si>
@@ -538,88 +541,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -631,7 +556,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,15 +672,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1402,7 +1318,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4595,18 +4511,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="60" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="57" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="60"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="60" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="60"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -4619,25 +4535,27 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 19/11/2021), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
@@ -4231,19 +4231,19 @@
         <v>156</v>
       </c>
       <c r="C92" s="47">
-        <v>3.4232397722919901</v>
+        <v>3.4248235639514601</v>
       </c>
       <c r="D92" s="47">
-        <v>19.869166826845401</v>
+        <v>19.864163667947299</v>
       </c>
       <c r="E92" s="47">
-        <v>92.809222457067904</v>
+        <v>92.812957849476305</v>
       </c>
       <c r="F92" s="47">
-        <v>1.3270471916140301</v>
+        <v>1.32711863730011</v>
       </c>
       <c r="G92" s="48">
-        <v>49.286327126910201</v>
+        <v>49.050560787616</v>
       </c>
       <c r="H92" s="49">
         <v>1168789.3309869701</v>

--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab13.xlsx
+++ b/AfDD_2022_Annex_Table_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 19/11/2021), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -4553,7 +4553,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
